--- a/config/excel/道具.xlsx
+++ b/config/excel/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\config-java\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A16C8E-FE69-4F14-83B3-F1BA75F051F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738921F0-1D4C-4546-B30B-8CE4E48806A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -95,12 +95,19 @@
   </si>
   <si>
     <t>43*45</t>
+  </si>
+  <si>
+    <t>生效时间</t>
+  </si>
+  <si>
+    <t>2019.08.05 12.33.55</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,16 +1052,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1093,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1131,8 +1151,11 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1158,7 +1181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1187,5 +1210,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/excel/道具.xlsx
+++ b/config/excel/道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738921F0-1D4C-4546-B30B-8CE4E48806A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4AE75B-4D55-4D30-91BC-8D027C2C3E20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>56;22</t>
   </si>
   <si>
-    <t>32*11</t>
-  </si>
-  <si>
     <t>道具3</t>
   </si>
   <si>
@@ -101,6 +98,10 @@
   </si>
   <si>
     <t>2019.08.05 12.33.55</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:11;34:19</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1056,7 +1057,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1095,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1152,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1178,7 +1179,7 @@
         <v>244</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,25 +1187,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/道具.xlsx
+++ b/config/excel/道具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4AE75B-4D55-4D30-91BC-8D027C2C3E20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC81E8-5334-4785-B48F-CC3101338BE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>342;45</t>
   </si>
   <si>
-    <t>22;22;456</t>
-  </si>
-  <si>
     <t>43*45</t>
   </si>
   <si>
@@ -102,6 +99,10 @@
   </si>
   <si>
     <t>32:11;34:19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>22;22;456</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1058,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1153,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1179,7 +1180,7 @@
         <v>244</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1202,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/道具.xlsx
+++ b/config/excel/道具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC81E8-5334-4785-B48F-CC3101338BE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6BEE0A-FB6C-47BC-ADCC-B810A61D1781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>112;322</t>
-  </si>
-  <si>
-    <t>554;465;655</t>
   </si>
   <si>
     <t>122*2;322*22;455*33</t>
@@ -98,11 +95,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>32:11;34:19</t>
+    <t>22;22;456</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>22;22;456</t>
+    <t>554;465;655</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*11;34:19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>233;554</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1055,22 +1060,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="7" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,13 +1098,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>23</v>
+      <c r="J1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1135,11 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1148,30 +1159,33 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4">
         <v>21</v>
@@ -1179,34 +1193,34 @@
       <c r="G4">
         <v>244</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
+      <c r="I4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
